--- a/excels/Data_QA_Tests.xlsx
+++ b/excels/Data_QA_Tests.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahi_pro\userdata\1220_Phase1\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="19095" windowHeight="11760" tabRatio="661"/>
   </bookViews>
@@ -1512,8 +1517,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1723,6 +1728,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1769,7 +1782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1801,9 +1814,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1835,6 +1849,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2010,14 +2025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
@@ -2030,7 +2045,7 @@
     <col min="15" max="15" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
@@ -2077,7 +2092,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>29</v>
       </c>
@@ -2124,7 +2139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>29</v>
       </c>
@@ -2171,7 +2186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>29</v>
       </c>
@@ -2218,7 +2233,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>29</v>
       </c>
@@ -2265,7 +2280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>29</v>
       </c>
@@ -2312,7 +2327,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>29</v>
       </c>
@@ -2359,7 +2374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>29</v>
       </c>
@@ -2406,7 +2421,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>29</v>
       </c>
@@ -2453,7 +2468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>29</v>
       </c>
@@ -2500,7 +2515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>29</v>
       </c>
@@ -2547,7 +2562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>29</v>
       </c>
@@ -2594,7 +2609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>29</v>
       </c>
@@ -2641,7 +2656,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>29</v>
       </c>
@@ -2688,7 +2703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>29</v>
       </c>
@@ -2735,7 +2750,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>29</v>
       </c>
@@ -2782,7 +2797,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
@@ -2829,7 +2844,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>29</v>
       </c>
@@ -2876,7 +2891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>29</v>
       </c>
@@ -2923,7 +2938,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>29</v>
       </c>
@@ -2970,7 +2985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>29</v>
       </c>
@@ -3017,7 +3032,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>29</v>
       </c>
@@ -3064,7 +3079,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>29</v>
       </c>
@@ -3111,7 +3126,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>29</v>
       </c>
@@ -3158,7 +3173,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>29</v>
       </c>
@@ -3205,7 +3220,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>29</v>
       </c>
@@ -3252,7 +3267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>29</v>
       </c>
@@ -3299,7 +3314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>29</v>
       </c>
@@ -3346,7 +3361,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>29</v>
       </c>
@@ -3393,7 +3408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
@@ -3440,7 +3455,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>29</v>
       </c>
@@ -3487,7 +3502,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>29</v>
       </c>
@@ -3534,7 +3549,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>29</v>
       </c>
@@ -3581,7 +3596,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>29</v>
       </c>
@@ -3628,7 +3643,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>29</v>
       </c>
@@ -3675,7 +3690,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>29</v>
       </c>
@@ -3722,7 +3737,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>29</v>
       </c>
@@ -3769,7 +3784,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>29</v>
       </c>
@@ -3816,7 +3831,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>29</v>
       </c>
@@ -3863,7 +3878,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
         <v>29</v>
       </c>
@@ -3910,7 +3925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
         <v>29</v>
       </c>
@@ -3957,7 +3972,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="26.25">
+    <row r="42" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>29</v>
       </c>
@@ -4004,7 +4019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="26.25">
+    <row r="43" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>29</v>
       </c>
@@ -4051,7 +4066,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="26.25">
+    <row r="44" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>29</v>
       </c>
@@ -4098,7 +4113,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="26.25">
+    <row r="45" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>29</v>
       </c>
@@ -4145,7 +4160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="26.25">
+    <row r="46" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>29</v>
       </c>
@@ -4192,7 +4207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26.25">
+    <row r="47" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>29</v>
       </c>
@@ -4239,7 +4254,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="26.25">
+    <row r="48" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>29</v>
       </c>
@@ -4286,7 +4301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="26.25">
+    <row r="49" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>29</v>
       </c>
@@ -4333,7 +4348,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="26.25">
+    <row r="50" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
         <v>29</v>
       </c>
@@ -4380,7 +4395,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="26.25">
+    <row r="51" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
         <v>29</v>
       </c>
@@ -4427,7 +4442,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
         <v>29</v>
       </c>
@@ -4474,7 +4489,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
         <v>29</v>
       </c>
@@ -4521,7 +4536,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
         <v>29</v>
       </c>
@@ -4568,7 +4583,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>29</v>
       </c>
@@ -4615,7 +4630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
         <v>29</v>
       </c>
@@ -4662,7 +4677,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="39" t="s">
         <v>29</v>
       </c>
@@ -4709,7 +4724,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
         <v>29</v>
       </c>
@@ -4756,7 +4771,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="39" t="s">
         <v>29</v>
       </c>
@@ -4803,7 +4818,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
         <v>29</v>
       </c>
@@ -4850,7 +4865,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
         <v>29</v>
       </c>
@@ -4897,7 +4912,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="26.25">
+    <row r="62" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
         <v>29</v>
       </c>
@@ -4944,7 +4959,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="26.25">
+    <row r="63" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
         <v>29</v>
       </c>
@@ -4991,7 +5006,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="26.25">
+    <row r="64" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
         <v>29</v>
       </c>
@@ -5038,7 +5053,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="26.25">
+    <row r="65" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
         <v>29</v>
       </c>
@@ -5085,7 +5100,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="26.25">
+    <row r="66" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
         <v>29</v>
       </c>
@@ -5132,7 +5147,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="26.25">
+    <row r="67" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
         <v>29</v>
       </c>
@@ -5179,7 +5194,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="26.25">
+    <row r="68" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
         <v>29</v>
       </c>
@@ -5226,7 +5241,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="26.25">
+    <row r="69" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="39" t="s">
         <v>29</v>
       </c>
@@ -5273,7 +5288,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="26.25">
+    <row r="70" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
         <v>29</v>
       </c>
@@ -5320,7 +5335,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="26.25">
+    <row r="71" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
         <v>29</v>
       </c>
@@ -5367,7 +5382,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="39" t="s">
         <v>29</v>
       </c>
@@ -5414,7 +5429,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
         <v>29</v>
       </c>
@@ -5461,7 +5476,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="39" t="s">
         <v>29</v>
       </c>
@@ -5508,7 +5523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="39" t="s">
         <v>29</v>
       </c>
@@ -5555,7 +5570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
         <v>29</v>
       </c>
@@ -5602,7 +5617,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
         <v>29</v>
       </c>
@@ -5649,7 +5664,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
         <v>29</v>
       </c>
@@ -5696,7 +5711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="39" t="s">
         <v>29</v>
       </c>
@@ -5743,7 +5758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
         <v>29</v>
       </c>
@@ -5790,7 +5805,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="39" t="s">
         <v>29</v>
       </c>
@@ -5837,7 +5852,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
         <v>29</v>
       </c>
@@ -5884,7 +5899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="39" t="s">
         <v>29</v>
       </c>
@@ -5931,7 +5946,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="39" t="s">
         <v>29</v>
       </c>
@@ -5978,7 +5993,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
         <v>29</v>
       </c>
@@ -6025,7 +6040,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="39" t="s">
         <v>29</v>
       </c>
@@ -6072,7 +6087,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
         <v>29</v>
       </c>
@@ -6119,7 +6134,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
         <v>29</v>
       </c>
@@ -6166,7 +6181,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
         <v>29</v>
       </c>
@@ -6213,7 +6228,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="39" t="s">
         <v>29</v>
       </c>
@@ -6260,7 +6275,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
         <v>29</v>
       </c>
@@ -6307,7 +6322,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="26.25">
+    <row r="92" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
         <v>29</v>
       </c>
@@ -6354,7 +6369,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="26.25">
+    <row r="93" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
         <v>29</v>
       </c>
@@ -6401,7 +6416,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="26.25">
+    <row r="94" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
         <v>29</v>
       </c>
@@ -6448,7 +6463,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="26.25">
+    <row r="95" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A95" s="39" t="s">
         <v>29</v>
       </c>
@@ -6495,7 +6510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="26.25">
+    <row r="96" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A96" s="39" t="s">
         <v>29</v>
       </c>
@@ -6542,7 +6557,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="26.25">
+    <row r="97" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
         <v>29</v>
       </c>
@@ -6589,7 +6604,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="26.25">
+    <row r="98" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A98" s="39" t="s">
         <v>29</v>
       </c>
@@ -6636,7 +6651,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="26.25">
+    <row r="99" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A99" s="39" t="s">
         <v>29</v>
       </c>
@@ -6683,7 +6698,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="26.25">
+    <row r="100" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A100" s="39" t="s">
         <v>29</v>
       </c>
@@ -6730,7 +6745,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="26.25">
+    <row r="101" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A101" s="39" t="s">
         <v>29</v>
       </c>
@@ -6777,7 +6792,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="26.25">
+    <row r="102" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
         <v>29</v>
       </c>
@@ -6824,7 +6839,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="26.25">
+    <row r="103" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
         <v>29</v>
       </c>
@@ -6871,7 +6886,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="26.25">
+    <row r="104" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="39" t="s">
         <v>29</v>
       </c>
@@ -6918,7 +6933,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="26.25">
+    <row r="105" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
         <v>29</v>
       </c>
@@ -6965,7 +6980,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="26.25">
+    <row r="106" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A106" s="39" t="s">
         <v>29</v>
       </c>
@@ -7012,7 +7027,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="26.25">
+    <row r="107" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
         <v>29</v>
       </c>
@@ -7059,7 +7074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="26.25">
+    <row r="108" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A108" s="39" t="s">
         <v>29</v>
       </c>
@@ -7106,7 +7121,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="26.25">
+    <row r="109" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
         <v>29</v>
       </c>
@@ -7153,7 +7168,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="26.25">
+    <row r="110" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A110" s="39" t="s">
         <v>29</v>
       </c>
@@ -7200,7 +7215,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="26.25">
+    <row r="111" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A111" s="39" t="s">
         <v>29</v>
       </c>
@@ -7247,7 +7262,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="26.25">
+    <row r="112" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="39" t="s">
         <v>29</v>
       </c>
@@ -7294,7 +7309,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="26.25">
+    <row r="113" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="39" t="s">
         <v>29</v>
       </c>
@@ -7341,7 +7356,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="26.25">
+    <row r="114" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A114" s="39" t="s">
         <v>29</v>
       </c>
@@ -7388,7 +7403,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="26.25">
+    <row r="115" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="39" t="s">
         <v>29</v>
       </c>
@@ -7435,7 +7450,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="26.25">
+    <row r="116" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="39" t="s">
         <v>29</v>
       </c>
@@ -7482,7 +7497,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="26.25">
+    <row r="117" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="39" t="s">
         <v>29</v>
       </c>
@@ -7529,7 +7544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="26.25">
+    <row r="118" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="39" t="s">
         <v>29</v>
       </c>
@@ -7576,7 +7591,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="26.25">
+    <row r="119" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="39" t="s">
         <v>29</v>
       </c>
@@ -7623,7 +7638,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="26.25">
+    <row r="120" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="39" t="s">
         <v>29</v>
       </c>
@@ -7670,7 +7685,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="26.25">
+    <row r="121" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="39" t="s">
         <v>29</v>
       </c>
@@ -7724,14 +7739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
@@ -7746,7 +7761,7 @@
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>28</v>
       </c>
@@ -7794,7 +7809,7 @@
       </c>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>29</v>
       </c>
@@ -7842,7 +7857,7 @@
       </c>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>29</v>
       </c>
@@ -7890,7 +7905,7 @@
       </c>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>29</v>
       </c>
@@ -7938,7 +7953,7 @@
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>29</v>
       </c>
@@ -7986,7 +8001,7 @@
       </c>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>29</v>
       </c>
@@ -8034,7 +8049,7 @@
       </c>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>29</v>
       </c>
@@ -8082,7 +8097,7 @@
       </c>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>29</v>
       </c>
@@ -8130,7 +8145,7 @@
       </c>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>29</v>
       </c>
@@ -8178,7 +8193,7 @@
       </c>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -8226,7 +8241,7 @@
       </c>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>29</v>
       </c>
@@ -8274,7 +8289,7 @@
       </c>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
@@ -8322,7 +8337,7 @@
       </c>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>29</v>
       </c>
@@ -8370,7 +8385,7 @@
       </c>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="26.25">
+    <row r="14" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>29</v>
       </c>
@@ -8418,7 +8433,7 @@
       </c>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="26.25">
+    <row r="15" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>29</v>
       </c>
@@ -8466,7 +8481,7 @@
       </c>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="26.25">
+    <row r="16" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>29</v>
       </c>
@@ -8514,7 +8529,7 @@
       </c>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" ht="26.25">
+    <row r="17" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>29</v>
       </c>
@@ -8562,7 +8577,7 @@
       </c>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>29</v>
       </c>
@@ -8610,7 +8625,7 @@
       </c>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>29</v>
       </c>
@@ -8658,7 +8673,7 @@
       </c>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>29</v>
       </c>
@@ -8706,7 +8721,7 @@
       </c>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>29</v>
       </c>
@@ -8754,7 +8769,7 @@
       </c>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>29</v>
       </c>
@@ -8802,7 +8817,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
@@ -8850,7 +8865,7 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>29</v>
       </c>
@@ -8898,7 +8913,7 @@
       </c>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>29</v>
       </c>
@@ -8946,7 +8961,7 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="26.25">
+    <row r="26" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>29</v>
       </c>
@@ -8994,7 +9009,7 @@
       </c>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="26.25">
+    <row r="27" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>29</v>
       </c>
@@ -9042,7 +9057,7 @@
       </c>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" ht="26.25">
+    <row r="28" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>29</v>
       </c>
@@ -9090,7 +9105,7 @@
       </c>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" ht="26.25">
+    <row r="29" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>29</v>
       </c>
@@ -9138,7 +9153,7 @@
       </c>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" ht="26.25">
+    <row r="30" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>29</v>
       </c>
@@ -9186,7 +9201,7 @@
       </c>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" ht="26.25">
+    <row r="31" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>29</v>
       </c>
@@ -9234,7 +9249,7 @@
       </c>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="26.25">
+    <row r="32" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>29</v>
       </c>
@@ -9282,7 +9297,7 @@
       </c>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" ht="26.25">
+    <row r="33" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>29</v>
       </c>
@@ -9330,7 +9345,7 @@
       </c>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
@@ -9378,7 +9393,7 @@
       </c>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>29</v>
       </c>
@@ -9426,7 +9441,7 @@
       </c>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>29</v>
       </c>
@@ -9474,7 +9489,7 @@
       </c>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>29</v>
       </c>
@@ -9522,7 +9537,7 @@
       </c>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>29</v>
       </c>
@@ -9570,7 +9585,7 @@
       </c>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>29</v>
       </c>
@@ -9618,7 +9633,7 @@
       </c>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>29</v>
       </c>
@@ -9666,7 +9681,7 @@
       </c>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>29</v>
       </c>
@@ -9721,14 +9736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -9747,7 +9762,7 @@
     <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="37.5" customHeight="1">
+    <row r="1" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>28</v>
       </c>
@@ -9795,7 +9810,7 @@
       </c>
       <c r="P1" s="54"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>29</v>
       </c>
@@ -9842,7 +9857,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>29</v>
       </c>
@@ -9889,7 +9904,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
@@ -9936,7 +9951,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>29</v>
       </c>
@@ -9983,7 +9998,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>29</v>
       </c>
@@ -10030,7 +10045,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>29</v>
       </c>
@@ -10077,7 +10092,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>29</v>
       </c>
@@ -10124,7 +10139,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>29</v>
       </c>
@@ -10171,7 +10186,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>29</v>
       </c>
@@ -10214,7 +10229,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>29</v>
       </c>
@@ -10257,7 +10272,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>29</v>
       </c>
@@ -10304,7 +10319,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>29</v>
       </c>
@@ -10351,7 +10366,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>29</v>
       </c>
@@ -10398,7 +10413,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>29</v>
       </c>
@@ -10445,7 +10460,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>29</v>
       </c>
@@ -10492,7 +10507,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
@@ -10539,7 +10554,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>29</v>
       </c>
@@ -10586,7 +10601,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>29</v>
       </c>
@@ -10633,7 +10648,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>29</v>
       </c>
@@ -10676,7 +10691,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>29</v>
       </c>
@@ -10719,7 +10734,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>29</v>
       </c>
@@ -10766,7 +10781,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>29</v>
       </c>
@@ -10813,7 +10828,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>29</v>
       </c>
@@ -10860,7 +10875,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>29</v>
       </c>
@@ -10907,7 +10922,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>29</v>
       </c>
@@ -10954,7 +10969,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>29</v>
       </c>
@@ -11001,7 +11016,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>29</v>
       </c>
@@ -11048,7 +11063,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>29</v>
       </c>
@@ -11095,7 +11110,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>29</v>
       </c>
@@ -11138,7 +11153,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>29</v>
       </c>
@@ -11181,7 +11196,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>29</v>
       </c>
@@ -11228,7 +11243,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>29</v>
       </c>
@@ -11275,7 +11290,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>29</v>
       </c>
@@ -11322,7 +11337,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>29</v>
       </c>
@@ -11369,7 +11384,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>29</v>
       </c>
@@ -11416,7 +11431,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>29</v>
       </c>
@@ -11463,7 +11478,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>29</v>
       </c>
@@ -11510,7 +11525,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>29</v>
       </c>
@@ -11557,7 +11572,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>29</v>
       </c>
@@ -11600,7 +11615,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>29</v>
       </c>
@@ -11643,7 +11658,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>29</v>
       </c>
@@ -11690,7 +11705,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>29</v>
       </c>
@@ -11737,7 +11752,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>29</v>
       </c>
@@ -11784,7 +11799,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>29</v>
       </c>
@@ -11831,7 +11846,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>29</v>
       </c>
@@ -11878,7 +11893,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>29</v>
       </c>
@@ -11925,7 +11940,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>29</v>
       </c>
@@ -11972,7 +11987,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>29</v>
       </c>
@@ -12019,7 +12034,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>29</v>
       </c>
@@ -12062,7 +12077,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>29</v>
       </c>
@@ -12105,7 +12120,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>29</v>
       </c>
@@ -12152,7 +12167,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>29</v>
       </c>
@@ -12199,7 +12214,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>29</v>
       </c>
@@ -12246,7 +12261,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>29</v>
       </c>
@@ -12293,7 +12308,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>29</v>
       </c>
@@ -12340,7 +12355,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>29</v>
       </c>
@@ -12387,7 +12402,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>29</v>
       </c>
@@ -12434,7 +12449,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>29</v>
       </c>
@@ -12481,7 +12496,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>29</v>
       </c>
@@ -12524,7 +12539,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>29</v>
       </c>
@@ -12567,7 +12582,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>29</v>
       </c>
@@ -12614,7 +12629,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>29</v>
       </c>
@@ -12661,7 +12676,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>29</v>
       </c>
@@ -12708,7 +12723,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>29</v>
       </c>
@@ -12755,7 +12770,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>29</v>
       </c>
@@ -12802,7 +12817,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>29</v>
       </c>
@@ -12849,7 +12864,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
         <v>29</v>
       </c>
@@ -12896,7 +12911,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>29</v>
       </c>
@@ -12943,7 +12958,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>29</v>
       </c>
@@ -12986,7 +13001,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>29</v>
       </c>
@@ -13036,14 +13051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -13057,7 +13072,7 @@
     <col min="15" max="15" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25">
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
@@ -13104,8 +13119,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -13151,8 +13166,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -13198,8 +13213,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -13245,8 +13260,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -13292,8 +13307,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -13339,8 +13354,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -13386,8 +13401,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -13433,8 +13448,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -13480,8 +13495,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -13527,8 +13542,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -13574,8 +13589,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="26.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -13621,8 +13636,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="26.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -13668,8 +13683,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="26.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -13715,8 +13730,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="26.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -13762,8 +13777,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="26.25">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -13809,8 +13824,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="26.25">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -13856,8 +13871,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="26.25">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -13903,8 +13918,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="26.25">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -13950,8 +13965,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="26.25">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -13997,8 +14012,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="26.25">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -14044,8 +14059,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="26.25">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -14091,8 +14106,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="26.25">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -14138,8 +14153,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26.25">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -14185,8 +14200,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="26.25">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -14232,8 +14247,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="26.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -14279,8 +14294,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="26.25">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -14326,8 +14341,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="26.25">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -14373,8 +14388,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="26.25">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -14420,8 +14435,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="26.25">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -14467,8 +14482,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="26.25">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -14514,8 +14529,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="26.25">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -14561,8 +14576,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="26.25">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -14608,8 +14623,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="26.25">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -14655,8 +14670,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="26.25">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -14702,8 +14717,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="26.25">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -14749,8 +14764,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="26.25">
-      <c r="A37" s="30" t="s">
+    <row r="37" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -14796,8 +14811,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="26.25">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -14843,8 +14858,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="26.25">
-      <c r="A39" s="30" t="s">
+    <row r="39" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -14890,8 +14905,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="26.25">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -14937,8 +14952,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="26.25">
-      <c r="A41" s="30" t="s">
+    <row r="41" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -14984,8 +14999,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="26.25">
-      <c r="A42" s="30" t="s">
+    <row r="42" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -15031,8 +15046,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="26.25">
-      <c r="A43" s="30" t="s">
+    <row r="43" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -15078,8 +15093,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="26.25">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -15125,8 +15140,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="26.25">
-      <c r="A45" s="30" t="s">
+    <row r="45" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -15172,8 +15187,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="26.25">
-      <c r="A46" s="30" t="s">
+    <row r="46" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -15219,8 +15234,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26.25">
-      <c r="A47" s="30" t="s">
+    <row r="47" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -15266,8 +15281,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="26.25">
-      <c r="A48" s="30" t="s">
+    <row r="48" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -15313,8 +15328,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="26.25">
-      <c r="A49" s="30" t="s">
+    <row r="49" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -15360,8 +15375,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="26.25">
-      <c r="A50" s="30" t="s">
+    <row r="50" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -15407,8 +15422,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="26.25">
-      <c r="A51" s="30" t="s">
+    <row r="51" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -15454,8 +15469,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="26.25">
-      <c r="A52" s="30" t="s">
+    <row r="52" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -15501,8 +15516,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="26.25">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -15548,8 +15563,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="26.25">
-      <c r="A54" s="30" t="s">
+    <row r="54" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -15595,8 +15610,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="26.25">
-      <c r="A55" s="30" t="s">
+    <row r="55" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -15642,8 +15657,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="26.25">
-      <c r="A56" s="30" t="s">
+    <row r="56" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -15689,8 +15704,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="26.25">
-      <c r="A57" s="30" t="s">
+    <row r="57" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -15736,8 +15751,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26.25">
-      <c r="A58" s="30" t="s">
+    <row r="58" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -15783,8 +15798,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="26.25">
-      <c r="A59" s="30" t="s">
+    <row r="59" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -15830,8 +15845,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="26.25">
-      <c r="A60" s="30" t="s">
+    <row r="60" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -15877,8 +15892,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="26.25">
-      <c r="A61" s="30" t="s">
+    <row r="61" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -15924,8 +15939,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="26.25">
-      <c r="A62" s="30" t="s">
+    <row r="62" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -15971,8 +15986,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="26.25">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -16018,8 +16033,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="26.25">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -16065,8 +16080,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="26.25">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -16112,8 +16127,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="26.25">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -16159,8 +16174,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="39">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -16206,8 +16221,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="39">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -16253,8 +16268,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="39">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -16300,8 +16315,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="39">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -16347,8 +16362,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="39">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -16394,8 +16409,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -16441,8 +16456,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="30" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -16488,8 +16503,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -16535,8 +16550,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="30" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -16582,8 +16597,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -16629,8 +16644,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="26.25">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -16676,8 +16691,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="26.25">
-      <c r="A78" s="30" t="s">
+    <row r="78" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -16723,8 +16738,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="26.25">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -16770,8 +16785,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="26.25">
-      <c r="A80" s="30" t="s">
+    <row r="80" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -16817,8 +16832,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="26.25">
-      <c r="A81" s="30" t="s">
+    <row r="81" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -16871,14 +16886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="26" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -16891,7 +16906,7 @@
     <col min="15" max="15" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25">
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
@@ -16938,7 +16953,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>29</v>
       </c>
@@ -16985,7 +17000,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>29</v>
       </c>
@@ -17032,7 +17047,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>29</v>
       </c>
@@ -17079,7 +17094,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>29</v>
       </c>
@@ -17126,7 +17141,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>29</v>
       </c>
@@ -17173,7 +17188,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="39">
+    <row r="7" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>29</v>
       </c>
@@ -17220,7 +17235,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="39">
+    <row r="8" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>29</v>
       </c>
@@ -17267,7 +17282,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39">
+    <row r="9" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>29</v>
       </c>
@@ -17314,7 +17329,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="39">
+    <row r="10" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>29</v>
       </c>
@@ -17361,7 +17376,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="39">
+    <row r="11" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>29</v>
       </c>
@@ -17408,7 +17423,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>29</v>
       </c>
@@ -17455,7 +17470,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>29</v>
       </c>
@@ -17502,7 +17517,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>29</v>
       </c>
@@ -17549,7 +17564,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>29</v>
       </c>
@@ -17596,7 +17611,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>29</v>
       </c>
@@ -17643,7 +17658,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="26.25">
+    <row r="17" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>29</v>
       </c>
@@ -17690,7 +17705,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="26.25">
+    <row r="18" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>29</v>
       </c>
@@ -17737,7 +17752,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="26.25">
+    <row r="19" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>29</v>
       </c>
@@ -17784,7 +17799,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="26.25">
+    <row r="20" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>29</v>
       </c>
@@ -17831,7 +17846,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="26.25">
+    <row r="21" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>29</v>
       </c>
@@ -17877,6 +17892,9 @@
       <c r="O21" s="30" t="s">
         <v>334</v>
       </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17884,14 +17902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
@@ -17910,7 +17928,7 @@
     <col min="16" max="16" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>28</v>
       </c>
@@ -17960,8 +17978,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -18010,8 +18028,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -18060,8 +18078,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -18110,8 +18128,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -18160,8 +18178,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -18210,8 +18228,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="40" t="s">
@@ -18260,8 +18278,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="43" t="s">
@@ -18310,8 +18328,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="43" t="s">
@@ -18360,8 +18378,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -18410,8 +18428,8 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="43" t="s">
@@ -18460,8 +18478,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -18510,8 +18528,8 @@
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -18560,8 +18578,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -18610,8 +18628,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -18660,8 +18678,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -18710,8 +18728,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="43" t="s">
@@ -18760,8 +18778,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="43" t="s">
@@ -18810,8 +18828,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -18860,8 +18878,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="43" t="s">
@@ -18910,8 +18928,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="43" t="s">
@@ -18960,8 +18978,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="43" t="s">
@@ -19010,8 +19028,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="44" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="43" t="s">
@@ -19060,8 +19078,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="44" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="43" t="s">
@@ -19110,8 +19128,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="43" t="s">
@@ -19160,8 +19178,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="44" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -19210,8 +19228,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="44" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="43" t="s">
@@ -19260,8 +19278,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="43" t="s">
@@ -19310,8 +19328,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="43" t="s">
@@ -19360,8 +19378,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="43" t="s">
@@ -19410,8 +19428,8 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="44" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="43" t="s">
@@ -19460,8 +19478,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="44" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="43" t="s">
@@ -19510,8 +19528,8 @@
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="44" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="43" t="s">
@@ -19560,8 +19578,8 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="44" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="43" t="s">
@@ -19610,8 +19628,8 @@
         <v>464</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="43" t="s">
@@ -19660,8 +19678,8 @@
         <v>465</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -19710,8 +19728,8 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="43" t="s">
@@ -19760,8 +19778,8 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="44" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="43" t="s">
@@ -19810,8 +19828,8 @@
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="44" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="43" t="s">
@@ -19860,8 +19878,8 @@
         <v>470</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="44" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="43" t="s">
@@ -19910,8 +19928,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="44" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="43" t="s">
@@ -19960,8 +19978,8 @@
         <v>472</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="44" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="43" t="s">
@@ -20010,8 +20028,8 @@
         <v>473</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="44" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="43" t="s">
@@ -20060,8 +20078,8 @@
         <v>474</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="44" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B44" s="43" t="s">
@@ -20110,8 +20128,8 @@
         <v>475</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="44" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="43" t="s">
@@ -20160,8 +20178,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="44" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="43" t="s">
@@ -20210,8 +20228,8 @@
         <v>477</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="44" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="43" t="s">
@@ -20260,8 +20278,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="44" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="43" t="s">
@@ -20310,8 +20328,8 @@
         <v>479</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="44" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="43" t="s">
@@ -20360,8 +20378,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="44" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="43" t="s">
@@ -20410,8 +20428,8 @@
         <v>481</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="44" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="43" t="s">
@@ -20460,8 +20478,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="44" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="43" t="s">
@@ -20510,8 +20528,8 @@
         <v>484</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="44" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="43" t="s">
@@ -20560,8 +20578,8 @@
         <v>485</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="44" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="43" t="s">
@@ -20610,8 +20628,8 @@
         <v>486</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="44" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B55" s="43" t="s">
@@ -20660,8 +20678,8 @@
         <v>487</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="44" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="43" t="s">
@@ -20710,8 +20728,8 @@
         <v>488</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="44" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="43" t="s">
@@ -20760,8 +20778,8 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="44" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="43" t="s">
@@ -20810,8 +20828,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="44" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="43" t="s">
@@ -20860,8 +20878,8 @@
         <v>491</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="44" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="43" t="s">
@@ -20910,8 +20928,8 @@
         <v>492</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="44" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="43" t="s">
@@ -20960,8 +20978,8 @@
         <v>493</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="44" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B62" s="43" t="s">
@@ -21010,7 +21028,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -21028,7 +21046,7 @@
       <c r="O63" s="33"/>
       <c r="P63" s="32"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
